--- a/server/analysis/qualtrics/single_choice_counts.xlsx
+++ b/server/analysis/qualtrics/single_choice_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acosc\Documents\GitHub\cs6795-project\server\analysis\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C234C-370C-4101-849F-2E83BD2965A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DBC88-B8AF-43B5-9426-BE1053E20DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="210">
   <si>
     <t>ID_APP</t>
   </si>
@@ -671,13 +671,19 @@
   </si>
   <si>
     <t>Professionals</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +719,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -787,11 +800,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -828,10 +843,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DD6C3CE2-7D4A-4EEF-96CB-A90BE4EB67B3}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,6 +863,1122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pre!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>How often do you think AI assists you? </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pre!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>All the time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Often</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sometimes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rarely</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Never</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pre!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A13E-4254-A524-629EAFB19A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pre!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>How often do you purposefully use AI to assist you?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pre!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>All the time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Often</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sometimes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rarely</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Never</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pre!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A13E-4254-A524-629EAFB19A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="928120976"/>
+        <c:axId val="928120560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="928120976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928120560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928120560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928120976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0555555555555555E-2"/>
+          <c:y val="9.8790079061639585E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.83897098164566708"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>post!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High Impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>post!$J$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Friends</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co-workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Professionals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Anonymous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>post!$J$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CF9-435E-90CF-2C01AAAF7A3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>post!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium Impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>post!$J$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Friends</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co-workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Professionals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Anonymous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>post!$J$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CF9-435E-90CF-2C01AAAF7A3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>post!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low Impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>post!$J$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Friends</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co-workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Professionals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Anonymous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>post!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26923076923076922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9CF9-435E-90CF-2C01AAAF7A3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>post!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>post!$J$7:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Friends</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co-workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Professionals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Anonymous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>post!$J$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26923076923076922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9CF9-435E-90CF-2C01AAAF7A3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="928110160"/>
+        <c:axId val="928102672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="928110160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928102672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928102672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="928110160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12998009623797024"/>
+          <c:y val="9.2592592592592587E-3"/>
+          <c:w val="0.7400398075240594"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,6 +2046,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1458,20 +2673,1041 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1507,7 +3743,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2987040" y="3390900"/>
+              <a:off x="5257800" y="906780"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1536,6 +3772,88 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AFA8B6-B93F-4460-AD88-5AF5B9DDAD0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA426E7-8EB9-4216-BFB9-D96B8D96C782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3578,11 +5896,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC60703D-CE40-45CF-AFE7-ACE88AC013E7}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Race">
-  <location ref="A14:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADD66A67-28AE-475E-927D-3B2B1BBD15E5}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
+  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -3598,25 +5916,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3643,7 +5946,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -3675,7 +5978,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3690,7 +5993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C9D1F7-3FD9-4916-A701-9A04B093B8C8}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Other">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C9D1F7-3FD9-4916-A701-9A04B093B8C8}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Anonymous">
   <location ref="E1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -4181,103 +6484,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADD66A67-28AE-475E-927D-3B2B1BBD15E5}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
-  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC37BB85-BCAE-4162-938D-F4F6BB2298C7}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
   <location ref="E1:G4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
@@ -4368,7 +6574,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01E0B5FA-6469-4E6A-ADB5-FE03DB71E2FF}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Education">
   <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
@@ -4488,7 +6694,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA0CCDE7-1182-473E-80FF-181EC1BB4CE9}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gender">
   <location ref="A8:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
@@ -4589,9 +6795,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453105E7-A7F4-4C8E-A731-B3A9ED42C240}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Does your work include interacting with AI?">
-  <location ref="A24:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC60703D-CE40-45CF-AFE7-ACE88AC013E7}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Race">
+  <location ref="A14:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -4610,76 +6816,33 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="23">
-        <item x="11"/>
-        <item x="20"/>
-        <item x="13"/>
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item sd="0" x="2"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4698,9 +6861,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="14"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -4709,6 +6872,9 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -4727,7 +6893,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4741,7 +6907,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96CA1ABE-2DD5-4BD5-A9F2-6FC946303996}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Do you understand AI?">
   <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
@@ -4846,7 +7012,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24509A25-F8C7-49EA-AB0D-C30F7E186B4E}" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="How often do you purposefully use AI to assist you?">
   <location ref="A16:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
@@ -4984,6 +7150,158 @@
   <dataFields count="2">
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="13" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453105E7-A7F4-4C8E-A731-B3A9ED42C240}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Does your work include interacting with AI?">
+  <location ref="A24:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="11"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="2"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5361,7 +7679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -8012,8 +10330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF32647-E57F-4FE3-BFC0-C55F0B9B88A6}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8407,10 +10725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6D8F0B-9C0F-41C7-8182-24E8B526AA64}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8418,9 +10736,12 @@
     <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -8431,7 +10752,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -8441,8 +10762,14 @@
       <c r="C2" s="5">
         <v>0.30769230769230771</v>
       </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -8452,8 +10779,17 @@
       <c r="C3" s="5">
         <v>0.11538461538461539</v>
       </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="23">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -8463,8 +10799,17 @@
       <c r="C4" s="5">
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="23">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -8474,8 +10819,17 @@
       <c r="C5" s="5">
         <v>0.53846153846153844</v>
       </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="23">
+        <v>6</v>
+      </c>
+      <c r="G5" s="23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>186</v>
       </c>
@@ -8485,8 +10839,28 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="23">
+        <v>3</v>
+      </c>
+      <c r="G6" s="23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>190</v>
       </c>
@@ -8497,7 +10871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -8508,7 +10882,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>147</v>
       </c>
@@ -8519,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -8530,7 +10904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -8541,7 +10915,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -8552,7 +10926,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>186</v>
       </c>
@@ -8563,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -8697,28 +11071,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9223B8-0D69-4B56-9939-F289F39A27B7}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -8729,7 +11109,7 @@
         <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
         <v>187</v>
@@ -8738,7 +11118,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -8757,8 +11137,23 @@
       <c r="G2" s="5">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -8777,8 +11172,26 @@
       <c r="G3" s="5">
         <v>0.34615384615384615</v>
       </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -8797,8 +11210,26 @@
       <c r="G4" s="5">
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -8817,8 +11248,26 @@
       <c r="G5" s="5">
         <v>0.5</v>
       </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>186</v>
       </c>
@@ -8837,8 +11286,44 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>205</v>
       </c>
@@ -8857,8 +11342,31 @@
       <c r="G8" t="s">
         <v>188</v>
       </c>
+      <c r="I8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="22">
+        <f>J3/SUM(J$3:J$6)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" ref="K8:N8" si="0">K3/SUM(K$3:K$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -8877,8 +11385,31 @@
       <c r="G9" s="5">
         <v>0.19230769230769232</v>
       </c>
+      <c r="I9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="22">
+        <f>J4/SUM(J$3:J$6)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" ref="K9:N9" si="1">K4/SUM(K$3:K$6)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -8897,8 +11428,31 @@
       <c r="G10" s="5">
         <v>0.61538461538461542</v>
       </c>
+      <c r="I10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" ref="J9:N11" si="2">J5/SUM(J$3:J$6)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.34615384615384615</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -8917,8 +11471,31 @@
       <c r="G11" s="5">
         <v>0.19230769230769232</v>
       </c>
+      <c r="I11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8938,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>186</v>
       </c>
@@ -8949,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>207</v>
       </c>
@@ -8960,7 +11537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -9083,5 +11660,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/server/analysis/qualtrics/single_choice_counts.xlsx
+++ b/server/analysis/qualtrics/single_choice_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acosc\Documents\GitHub\cs6795-project\server\analysis\qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DBC88-B8AF-43B5-9426-BE1053E20DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7093DF35-4E44-462A-9951-4865B50E311D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1207,12 +1207,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1259,7 +1254,7 @@
           <c:x val="3.0555555555555555E-2"/>
           <c:y val="9.8790079061639585E-2"/>
           <c:w val="0.93888888888888888"/>
-          <c:h val="0.83897098164566708"/>
+          <c:h val="0.82045239136774573"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1331,10 +1326,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1953,12 +1944,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2086,46 +2072,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3176,524 +3122,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5896,7 +5324,606 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADD66A67-28AE-475E-927D-3B2B1BBD15E5}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC60703D-CE40-45CF-AFE7-ACE88AC013E7}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Race">
+  <location ref="A14:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16E84E6E-FF15-4AD4-80FE-3BB581B96B2B}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Family">
+  <location ref="A8:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="26"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5046CB00-92AF-48E6-9699-5DAF32F75EC5}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Friends">
+  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="25"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D65DCAD-E94A-4A43-BFE9-3E45AC924D37}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Co-workers">
+  <location ref="A15:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="27"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{133626FC-C243-4E47-9EAB-92734424FDCA}" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Professionals">
+  <location ref="A22:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="28"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C9D1F7-3FD9-4916-A701-9A04B093B8C8}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Anonymous">
+  <location ref="E1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="31">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="29"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADD66A67-28AE-475E-927D-3B2B1BBD15E5}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
   <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -5992,499 +6019,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C9D1F7-3FD9-4916-A701-9A04B093B8C8}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Anonymous">
-  <location ref="E1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="29"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B4A6364-B352-4CB2-BE0F-E26C40A72411}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Future Outlook Regarding AI">
-  <location ref="E8:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="30"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16E84E6E-FF15-4AD4-80FE-3BB581B96B2B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Family">
-  <location ref="A8:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="26"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5046CB00-92AF-48E6-9699-5DAF32F75EC5}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Friends">
-  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="25"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D65DCAD-E94A-4A43-BFE9-3E45AC924D37}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Co-workers">
-  <location ref="A15:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="27"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="26" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC37BB85-BCAE-4162-938D-F4F6BB2298C7}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC37BB85-BCAE-4162-938D-F4F6BB2298C7}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Condition">
   <location ref="E1:G4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -6574,8 +6110,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01E0B5FA-6469-4E6A-ADB5-FE03DB71E2FF}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Education">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01E0B5FA-6469-4E6A-ADB5-FE03DB71E2FF}" name="PivotTable20" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Education">
   <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -6694,8 +6230,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA0CCDE7-1182-473E-80FF-181EC1BB4CE9}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gender">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA0CCDE7-1182-473E-80FF-181EC1BB4CE9}" name="PivotTable16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gender">
   <location ref="A8:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -6795,9 +6331,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC60703D-CE40-45CF-AFE7-ACE88AC013E7}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Race">
-  <location ref="A14:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453105E7-A7F4-4C8E-A731-B3A9ED42C240}" name="PivotTable29" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Does your work include interacting with AI?">
+  <location ref="A24:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -6816,33 +6352,76 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="4">
+      <items count="23">
+        <item x="11"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="12"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="2"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6861,9 +6440,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="14"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -6872,9 +6451,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -6893,7 +6469,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6907,8 +6483,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96CA1ABE-2DD5-4BD5-A9F2-6FC946303996}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Do you understand AI?">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96CA1ABE-2DD5-4BD5-A9F2-6FC946303996}" name="PivotTable22" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Do you understand AI?">
   <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -7012,8 +6588,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24509A25-F8C7-49EA-AB0D-C30F7E186B4E}" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="How often do you purposefully use AI to assist you?">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24509A25-F8C7-49EA-AB0D-C30F7E186B4E}" name="PivotTable27" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="How often do you purposefully use AI to assist you?">
   <location ref="A16:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
@@ -7163,116 +6739,67 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453105E7-A7F4-4C8E-A731-B3A9ED42C240}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Does your work include interacting with AI?">
-  <location ref="A24:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B4A6364-B352-4CB2-BE0F-E26C40A72411}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Future Outlook Regarding AI">
+  <location ref="E8:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="5">
-        <item x="0"/>
+        <item x="3"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="23">
-        <item x="11"/>
-        <item x="20"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="19"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="5">
         <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item sd="0" x="2"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default" sd="0"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="14"/>
+    <field x="30"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -7283,105 +6810,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Percent" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{133626FC-C243-4E47-9EAB-92734424FDCA}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Professionals">
-  <location ref="A22:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="31">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="28"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -10330,7 +9758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF32647-E57F-4FE3-BFC0-C55F0B9B88A6}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -10728,7 +10156,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11079,8 +10507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9223B8-0D69-4B56-9939-F289F39A27B7}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11432,7 +10860,7 @@
         <v>63</v>
       </c>
       <c r="J10" s="22">
-        <f t="shared" ref="J9:N11" si="2">J5/SUM(J$3:J$6)</f>
+        <f t="shared" ref="J10:N11" si="2">J5/SUM(J$3:J$6)</f>
         <v>0.38461538461538464</v>
       </c>
       <c r="K10" s="22">
